--- a/output/fit_clients/fit_round_452.xlsx
+++ b/output/fit_clients/fit_round_452.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2352618447.671864</v>
+        <v>2202795092.801388</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08486659002090265</v>
+        <v>0.08086678004275091</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03824361693469548</v>
+        <v>0.02985469061413672</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1176309266.913992</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2622589577.182373</v>
+        <v>2407326915.089316</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1274539638888805</v>
+        <v>0.177680762955677</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04649025159407478</v>
+        <v>0.0500593859971043</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1311294925.084643</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3522493514.379393</v>
+        <v>5048711120.290257</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1625482560943395</v>
+        <v>0.1534711597819166</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03314989566530806</v>
+        <v>0.02784924196848405</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>164</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1761246737.553591</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3442884497.981826</v>
+        <v>3936506400.57831</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07685328104577134</v>
+        <v>0.08800301016945658</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04599858904278695</v>
+        <v>0.03335103452148072</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>167</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1721442289.534906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1950053940.81177</v>
+        <v>2074282011.848637</v>
       </c>
       <c r="F6" t="n">
-        <v>0.122898642660202</v>
+        <v>0.1025352065492845</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0436122420280192</v>
+        <v>0.04055083205448386</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>85</v>
-      </c>
-      <c r="J6" t="n">
-        <v>975027005.4265124</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3002081369.29431</v>
+        <v>2473890910.00757</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08871700264262652</v>
+        <v>0.07585174483607991</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03565836269942588</v>
+        <v>0.03875551846979765</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>143</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1501040649.41762</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2792885292.712975</v>
+        <v>3460813239.5392</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1515498787225675</v>
+        <v>0.1719015173824077</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02252298859087739</v>
+        <v>0.0301686104669048</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>144</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1396442682.71359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2097528924.016785</v>
+        <v>2156062242.171227</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1475478756241327</v>
+        <v>0.1549684099140918</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03279191032494244</v>
+        <v>0.03530164880513436</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1048764475.109752</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5760024730.634041</v>
+        <v>4956273843.513226</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1344135816913039</v>
+        <v>0.1343234436986601</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03728187034048144</v>
+        <v>0.04781256558936189</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>191</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2880012523.473392</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3030529953.505684</v>
+        <v>3548562338.774266</v>
       </c>
       <c r="F11" t="n">
-        <v>0.150782788384536</v>
+        <v>0.1557453094710382</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03552584455505334</v>
+        <v>0.03545696598376527</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>187</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1515264921.892291</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2352946931.670662</v>
+        <v>2820231896.790519</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1879578361328922</v>
+        <v>0.1354370854208757</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04410497253651539</v>
+        <v>0.03978565323031601</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>153</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1176473424.622366</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3799854455.784693</v>
+        <v>3593113027.280152</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06812760066041436</v>
+        <v>0.07523254005106186</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02710323913499484</v>
+        <v>0.02651251292709551</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>152</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1899927293.006044</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3865760910.495875</v>
+        <v>3596749941.512914</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1485430927478578</v>
+        <v>0.1518511606251895</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04302060338650465</v>
+        <v>0.02987698636966983</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>145</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1932880427.009132</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1803489004.228603</v>
+        <v>1787231468.825575</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09588867782039111</v>
+        <v>0.1010613515793724</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03472131544140399</v>
+        <v>0.04850389244991644</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>901744656.4550258</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2730232644.139717</v>
+        <v>2429608437.377686</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09213582943444448</v>
+        <v>0.09350250461692537</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03689973907816513</v>
+        <v>0.03116972994037192</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>93</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1365116332.33168</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4952995724.555532</v>
+        <v>4157373759.46528</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1288354958063913</v>
+        <v>0.163036415273464</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04319260684081123</v>
+        <v>0.04292591793267718</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>135</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2476497849.801322</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3309201287.089091</v>
+        <v>3377052506.30817</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1544153950390519</v>
+        <v>0.1765353963618627</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0263951492994304</v>
+        <v>0.02172057034935961</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>148</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1654600651.411709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1066214688.626014</v>
+        <v>1089275158.421523</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1774743378355326</v>
+        <v>0.1207603647912585</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02293293485698777</v>
+        <v>0.02528665398895686</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>533107389.667442</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2760355328.818252</v>
+        <v>2499622599.60041</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1435541602425068</v>
+        <v>0.1330447538682319</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03069220896981584</v>
+        <v>0.0317625034371745</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>62</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1380177609.768414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2303457200.613518</v>
+        <v>1940956149.435303</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08230980939206872</v>
+        <v>0.07627534970164891</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03218134101041319</v>
+        <v>0.03275856846532366</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>35</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1151728607.262102</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2781805680.836595</v>
+        <v>3102211664.546554</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1034200024397543</v>
+        <v>0.1272868812790932</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0423572249749371</v>
+        <v>0.05344698598918783</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>125</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1390902915.036289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1006624718.73909</v>
+        <v>1477568126.941421</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1862428642179189</v>
+        <v>0.1608679947677573</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0481864694402288</v>
+        <v>0.05456293993712643</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>503312428.4715687</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3912835607.310595</v>
+        <v>2819047960.879161</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1018434848639542</v>
+        <v>0.09104904062760512</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03039304454092552</v>
+        <v>0.02724302755203136</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>132</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1956417777.532713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1104220757.851376</v>
+        <v>1300353360.618762</v>
       </c>
       <c r="F25" t="n">
-        <v>0.11356389021694</v>
+        <v>0.08021557510810171</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02193833037740037</v>
+        <v>0.02834224432039429</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>552110418.9692736</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1284349513.138551</v>
+        <v>1032818515.589819</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1032512547353591</v>
+        <v>0.112673203524596</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02673169602760827</v>
+        <v>0.02908632416561008</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>642174798.2512968</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4314432947.010716</v>
+        <v>3412618415.911135</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1520756520398216</v>
+        <v>0.1406201572863706</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02479768758000302</v>
+        <v>0.02252742523082223</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2157216468.08231</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3263673881.615916</v>
+        <v>3100180316.087824</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1334619291109382</v>
+        <v>0.151530375156428</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03766506444832979</v>
+        <v>0.03192541305571257</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>146</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1631836974.943754</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4995028168.166192</v>
+        <v>5649546489.146578</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1439461753085059</v>
+        <v>0.144723193222646</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03666952927662368</v>
+        <v>0.03895472817035826</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>200</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2497514032.012417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1859974955.151465</v>
+        <v>2371431663.415116</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1348150576996872</v>
+        <v>0.1264504794406504</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03991875314545307</v>
+        <v>0.03839087549003284</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>929987499.1386975</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1028490610.668939</v>
+        <v>1380269846.751762</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08215718003767013</v>
+        <v>0.1111759767609951</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05107841489338384</v>
+        <v>0.033191683852604</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>514245297.1919981</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1762799759.855551</v>
+        <v>1623998770.695863</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1074303466504822</v>
+        <v>0.09570998695634249</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03375247585703166</v>
+        <v>0.02616662243869016</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>881400002.725309</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2741032027.78529</v>
+        <v>2720888089.518206</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2025356643953216</v>
+        <v>0.1384742341761253</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04137907321495485</v>
+        <v>0.03763911908441432</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>139</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1370516031.578961</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1187900227.615087</v>
+        <v>1179538095.32635</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08635467643962627</v>
+        <v>0.08100741515128604</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01778318116493892</v>
+        <v>0.02734865376573982</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>593950120.9091254</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1064779304.335406</v>
+        <v>1338516896.621948</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1021566319046068</v>
+        <v>0.1179873321180932</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03804105077012243</v>
+        <v>0.0390174451483665</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>532389656.5619396</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2735398911.323635</v>
+        <v>2333911945.005367</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1635999072519587</v>
+        <v>0.1449580436258375</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02326855529310656</v>
+        <v>0.0281464105324278</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>115</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1367699458.79684</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2836994786.443985</v>
+        <v>1836634167.82135</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1007355769583867</v>
+        <v>0.1092488419901326</v>
       </c>
       <c r="G37" t="n">
-        <v>0.026781545240638</v>
+        <v>0.03634553883720509</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>120</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1418497535.646992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1613921156.690034</v>
+        <v>1383800962.095828</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07960283356985667</v>
+        <v>0.1185288538151821</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02749877864595678</v>
+        <v>0.03800928979397995</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>806960611.5359</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2000582391.485119</v>
+        <v>1931366184.981654</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1648707123831064</v>
+        <v>0.1357455393215886</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02366775114655442</v>
+        <v>0.02645584923128386</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1000291190.217648</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1820782856.489258</v>
+        <v>1753349079.084636</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1248368336267567</v>
+        <v>0.118089510291392</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04865542180048468</v>
+        <v>0.03857991019801815</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>910391314.1711841</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2557308922.128301</v>
+        <v>2460001799.378862</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1502013606989728</v>
+        <v>0.1285486130109503</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03578786803870965</v>
+        <v>0.03696593845310808</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>110</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1278654480.796415</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4325612744.868003</v>
+        <v>3875400633.160476</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1040215430930398</v>
+        <v>0.08888984582626167</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04286360145358346</v>
+        <v>0.03727477214122584</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>147</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2162806424.12459</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2976751353.890518</v>
+        <v>2753382031.098882</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1746386125388363</v>
+        <v>0.1786715577249511</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02506691484143223</v>
+        <v>0.01710205344932081</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>157</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1488375677.669992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2205264573.061988</v>
+        <v>2297004521.711052</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1014372161342131</v>
+        <v>0.09254308888354604</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03134963171650109</v>
+        <v>0.02806262529511677</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1102632433.829567</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2124229958.575487</v>
+        <v>1680713731.191871</v>
       </c>
       <c r="F45" t="n">
-        <v>0.125998771454875</v>
+        <v>0.1318846959136312</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05245481049021277</v>
+        <v>0.03916971101882109</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1062114982.670444</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4130862376.230598</v>
+        <v>3621403315.098736</v>
       </c>
       <c r="F46" t="n">
-        <v>0.147814009896901</v>
+        <v>0.1768232768213282</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06087094084492237</v>
+        <v>0.03698378791186299</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>161</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2065431165.199003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3515620409.341811</v>
+        <v>3805345652.065804</v>
       </c>
       <c r="F47" t="n">
-        <v>0.179498219389379</v>
+        <v>0.2029322697860274</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05624596426618767</v>
+        <v>0.05827666701485974</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>124</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1757810176.370521</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4468559320.337036</v>
+        <v>3567862668.321221</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1049947353348441</v>
+        <v>0.0953535699891128</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0257400274956697</v>
+        <v>0.02812670891175143</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>148</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2234279667.324882</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1899853349.238902</v>
+        <v>1920349292.315401</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1431145086596589</v>
+        <v>0.1507258260526164</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02841001633269269</v>
+        <v>0.03760712688712172</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>949926644.5056709</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3524617934.605709</v>
+        <v>2802018069.508418</v>
       </c>
       <c r="F50" t="n">
-        <v>0.126854922357511</v>
+        <v>0.1233631657621084</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05260979123475509</v>
+        <v>0.04899947124556594</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>155</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1762308989.822885</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1270669234.011671</v>
+        <v>1311863952.097499</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1434884663182434</v>
+        <v>0.1770753153011455</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04771060534191338</v>
+        <v>0.03540134479072951</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>635334657.1282672</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5213178750.435141</v>
+        <v>4447652799.95105</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1275970577223522</v>
+        <v>0.1344736927206923</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05116081913701646</v>
+        <v>0.04664344013245124</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>187</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2606589360.320784</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2813124108.065251</v>
+        <v>2973607395.421797</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1443820891425598</v>
+        <v>0.1522562104843899</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03541092691232559</v>
+        <v>0.03117890505724948</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>130</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1406562099.354626</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3966090883.109364</v>
+        <v>3326729442.458149</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1529666645582778</v>
+        <v>0.1206114532403034</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04184317877046912</v>
+        <v>0.03795950996935641</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>147</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1983045502.990072</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4929618971.85174</v>
+        <v>4452368633.902276</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2176839492507698</v>
+        <v>0.2186826757185304</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01964126882930012</v>
+        <v>0.0219091212387076</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>120</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2464809501.907161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1562681424.816422</v>
+        <v>1754010968.028894</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1455062011971963</v>
+        <v>0.1490175739218808</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04650614084029724</v>
+        <v>0.03795526134870605</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>781340745.414314</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3698894935.488861</v>
+        <v>4568174273.522346</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1138336537094699</v>
+        <v>0.1502327651197356</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02309213403202458</v>
+        <v>0.01807423228256843</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>144</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1849447530.849471</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1453060132.283408</v>
+        <v>1880783827.34268</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1651494826675126</v>
+        <v>0.1473405586002901</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03271245657498196</v>
+        <v>0.02743700941423815</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>726530101.5902376</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4177540307.72362</v>
+        <v>3931312538.689458</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1060332270685942</v>
+        <v>0.1299570022756819</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04180194499107056</v>
+        <v>0.04391137701024968</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>127</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2088770121.262831</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2402334946.383428</v>
+        <v>2340018182.550763</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1788759265825293</v>
+        <v>0.1278725661688448</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03038462409135381</v>
+        <v>0.02524982466133923</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>144</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1201167480.870405</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2632048206.979031</v>
+        <v>2689972952.319355</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1719212417635367</v>
+        <v>0.1682821846810189</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02892353177305262</v>
+        <v>0.02092580380248147</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>156</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1316024118.675596</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1978945287.02302</v>
+        <v>1312604036.646718</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1526042168279617</v>
+        <v>0.1225217382229329</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04924385660389167</v>
+        <v>0.04476936983261789</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>989472698.4589891</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4577779991.032395</v>
+        <v>4179021346.193729</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09298722677307514</v>
+        <v>0.1060184865948752</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04028341983823229</v>
+        <v>0.04460914513316076</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>130</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2288890032.127339</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4487022870.733728</v>
+        <v>4014287011.654584</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1587298113083485</v>
+        <v>0.1271487821899184</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02636378756327981</v>
+        <v>0.02513896740467478</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>141</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2243511505.501405</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3978098777.054506</v>
+        <v>4811930257.70399</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1588921010343498</v>
+        <v>0.1706228594518255</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0234305554421678</v>
+        <v>0.02344702413450916</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>162</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1989049408.443006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5267817991.866382</v>
+        <v>4956868885.369316</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1513045930630521</v>
+        <v>0.1103141122207114</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03815425566362982</v>
+        <v>0.03572462188410424</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>133</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2633909037.430574</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2354420606.847795</v>
+        <v>3340113228.018211</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08256510171630145</v>
+        <v>0.09138260343920822</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04321407319414279</v>
+        <v>0.03179483373752009</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>145</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1177210376.399192</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4305691865.250283</v>
+        <v>5770022659.511609</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1066919033521124</v>
+        <v>0.1169749297853514</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04521310005198007</v>
+        <v>0.0328388280405232</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>146</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2152845946.97157</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1610792909.649297</v>
+        <v>2155191111.159817</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1561355831529549</v>
+        <v>0.1655968988368127</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04844937180611137</v>
+        <v>0.05670548790178384</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>805396409.5029155</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2327924193.101477</v>
+        <v>2568372852.394252</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09455833782492501</v>
+        <v>0.07192329674032071</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03102792241618151</v>
+        <v>0.03658528754890661</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>129</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1163962029.800808</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4978676643.157892</v>
+        <v>4369121857.123148</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1128111719278651</v>
+        <v>0.154237082063336</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0268254372194248</v>
+        <v>0.03292319924915794</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>165</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2489338425.746271</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2025560650.636228</v>
+        <v>1457410735.682698</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09546218752501849</v>
+        <v>0.08662173699010317</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03553222531136906</v>
+        <v>0.04879112727080588</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1012780267.576807</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2504860877.230066</v>
+        <v>2770214930.152615</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1062205985116897</v>
+        <v>0.07120025880090088</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04317893218124639</v>
+        <v>0.04431656127692654</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>172</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1252430479.970121</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2941153039.92062</v>
+        <v>3628465574.131657</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1793746119294076</v>
+        <v>0.1560293046489355</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03463131774116869</v>
+        <v>0.02299023833991255</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>154</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1470576590.488142</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2408245848.46039</v>
+        <v>1779331956.695615</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1356513635305456</v>
+        <v>0.1389892297278657</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03625091576911563</v>
+        <v>0.02574221207351153</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1204122850.115528</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4183899877.041169</v>
+        <v>4895193571.124455</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09486344343789639</v>
+        <v>0.08310500773553009</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03060829274102024</v>
+        <v>0.03427308525028337</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2091949930.982158</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2130154621.35817</v>
+        <v>1938828779.919102</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1852821922422917</v>
+        <v>0.1710394211752441</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02321919448160097</v>
+        <v>0.0306054032204275</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1065077391.408735</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3617308723.187954</v>
+        <v>4513915497.99673</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1225688566837526</v>
+        <v>0.1009498066380539</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04005799566994234</v>
+        <v>0.0559790813688857</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>157</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1808654354.712248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1381526365.534364</v>
+        <v>1613922780.904173</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1348754526276812</v>
+        <v>0.1681522261354486</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03458274124268425</v>
+        <v>0.02768634217028376</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>690763196.2400272</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5024676792.453279</v>
+        <v>5635888136.882494</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07679710989703298</v>
+        <v>0.07742005437046522</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03763177773914738</v>
+        <v>0.02631023354580478</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>96</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2512338446.682028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4480852829.591909</v>
+        <v>3316594925.192503</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09176001958364585</v>
+        <v>0.09342192767933503</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02261411188193987</v>
+        <v>0.03178024650666483</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>102</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2240426395.88844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3624601431.041174</v>
+        <v>5064486124.602596</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1881447210038608</v>
+        <v>0.2102110928751681</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02558900878140924</v>
+        <v>0.0205378784589984</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>158</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1812300776.22523</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1992548504.172887</v>
+        <v>1882773977.719824</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1084795902144522</v>
+        <v>0.1125512686110596</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04395916235927128</v>
+        <v>0.04435247435893919</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>996274236.4909875</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1847329798.530536</v>
+        <v>2042174218.478917</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1205353780353271</v>
+        <v>0.09398603852236842</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03466906681603226</v>
+        <v>0.03657433866073614</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6</v>
-      </c>
-      <c r="J84" t="n">
-        <v>923664926.6205124</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2313942886.622464</v>
+        <v>3110581436.519985</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1678929762324849</v>
+        <v>0.1718820006684253</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03843382668978339</v>
+        <v>0.05080893574719923</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>169</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1156971427.720398</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2532554616.032698</v>
+        <v>2669081741.478906</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1611355857600213</v>
+        <v>0.1582661112338162</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02001732151576631</v>
+        <v>0.01922655851653115</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>56</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1266277409.716291</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1171696483.877491</v>
+        <v>1309502862.620132</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1523823893568772</v>
+        <v>0.1885917016434936</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04029157172961147</v>
+        <v>0.03046988391458674</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>585848290.285108</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2496770268.423463</v>
+        <v>2817086113.087771</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1405879240808056</v>
+        <v>0.1536923527356816</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03658847844677109</v>
+        <v>0.03643763503968109</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>180</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1248385114.942832</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2953880680.238295</v>
+        <v>3234532625.757537</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1389486389915834</v>
+        <v>0.1092343545636599</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03888122178512602</v>
+        <v>0.04022225280738764</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>154</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1476940381.618028</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2150081388.188008</v>
+        <v>2146497904.440711</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1141013638057519</v>
+        <v>0.126153438286395</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0555121944614614</v>
+        <v>0.04759331158089758</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1075040791.861835</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1503463612.414017</v>
+        <v>1977338065.447258</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1564310820689874</v>
+        <v>0.1243873417759681</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03808537500415887</v>
+        <v>0.04997155526626469</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>751731844.6831757</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2969190900.665329</v>
+        <v>2812231602.82727</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08069859840110452</v>
+        <v>0.09715904842506648</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04433290644533251</v>
+        <v>0.04758233794744184</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>124</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1484595469.757353</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4985762706.89819</v>
+        <v>4070383836.534106</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09653369930616677</v>
+        <v>0.09932166791783147</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03895781835873225</v>
+        <v>0.04206987264947821</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>136</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2492881290.357234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1959299023.814322</v>
+        <v>1786710839.306399</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1365055982758286</v>
+        <v>0.1285914755378298</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03132250961120538</v>
+        <v>0.0362166614809857</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>979649504.9662439</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2521286462.157361</v>
+        <v>3226835856.252516</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1206798358482278</v>
+        <v>0.1005197120046571</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03955456697512668</v>
+        <v>0.0497922688912226</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>108</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1260643265.624503</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1670590643.393052</v>
+        <v>1615296800.003577</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0983427877436989</v>
+        <v>0.09289615238571405</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04491142420240969</v>
+        <v>0.044511343174652</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>835295343.8478521</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4761656996.758621</v>
+        <v>5095669256.707271</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1724874560968939</v>
+        <v>0.1221479602635024</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02629390303114734</v>
+        <v>0.02005892378138012</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>146</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2380828616.027496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2956235152.209705</v>
+        <v>3139441725.8701</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1228474111733442</v>
+        <v>0.1181399126173753</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02737144122645851</v>
+        <v>0.02070937557508066</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>121</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1478117557.842415</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2839182102.12001</v>
+        <v>2755119934.738847</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1421297238812882</v>
+        <v>0.09183572630785199</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03458229699006857</v>
+        <v>0.02406298140747907</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>142</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1419591025.34981</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3324151603.842206</v>
+        <v>4479884720.449291</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1083273979641317</v>
+        <v>0.1679488061936593</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02413578277559528</v>
+        <v>0.02015296031611333</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>138</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1662075818.658005</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3443692213.302425</v>
+        <v>3304438906.75485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.150752179506439</v>
+        <v>0.1794486070982838</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04513816900674472</v>
+        <v>0.0437276372246406</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>186</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1721846254.367841</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_452.xlsx
+++ b/output/fit_clients/fit_round_452.xlsx
@@ -486,16 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2202795092.801388</v>
+        <v>2411360499.217433</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08086678004275091</v>
+        <v>0.06961243127075009</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02985469061413672</v>
+        <v>0.0285478852869098</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2407326915.089316</v>
+        <v>2557238027.289183</v>
       </c>
       <c r="F3" t="n">
-        <v>0.177680762955677</v>
+        <v>0.1584320350687616</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0500593859971043</v>
+        <v>0.03854593088439773</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5048711120.290257</v>
+        <v>3784139798.362185</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1534711597819166</v>
+        <v>0.1171980592329276</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02784924196848405</v>
+        <v>0.03599241474065826</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3936506400.57831</v>
+        <v>2582824075.188507</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08800301016945658</v>
+        <v>0.07723570415982192</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03335103452148072</v>
+        <v>0.03101874851362832</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2074282011.848637</v>
+        <v>2789762377.698486</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1025352065492845</v>
+        <v>0.1279699517451581</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04055083205448386</v>
+        <v>0.05601242056388941</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2473890910.00757</v>
+        <v>2723003518.561322</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07585174483607991</v>
+        <v>0.09789610808922136</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03875551846979765</v>
+        <v>0.03773588987560429</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3460813239.5392</v>
+        <v>3673200812.192875</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1719015173824077</v>
+        <v>0.1856269757228497</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0301686104669048</v>
+        <v>0.02077272823357137</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2156062242.171227</v>
+        <v>1483502592.612225</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1549684099140918</v>
+        <v>0.1532352507020737</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03530164880513436</v>
+        <v>0.03185164447568911</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4956273843.513226</v>
+        <v>5179677936.404532</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1343234436986601</v>
+        <v>0.1893703484465321</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04781256558936189</v>
+        <v>0.04342267675772595</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3548562338.774266</v>
+        <v>3785374812.603958</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1557453094710382</v>
+        <v>0.1408671191339985</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03545696598376527</v>
+        <v>0.03227466596926255</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2820231896.790519</v>
+        <v>3268350144.464197</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1354370854208757</v>
+        <v>0.1756111062167756</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03978565323031601</v>
+        <v>0.04693017964439605</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3593113027.280152</v>
+        <v>5351326148.431703</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07523254005106186</v>
+        <v>0.09220294963021389</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02651251292709551</v>
+        <v>0.02251937509402764</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3596749941.512914</v>
+        <v>2836011119.705731</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1518511606251895</v>
+        <v>0.144319633299261</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02987698636966983</v>
+        <v>0.04403169504756319</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1787231468.825575</v>
+        <v>1260571600.888362</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1010613515793724</v>
+        <v>0.07888342358447974</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04850389244991644</v>
+        <v>0.04083888061573794</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2429608437.377686</v>
+        <v>2657896728.397702</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09350250461692537</v>
+        <v>0.08615316283379479</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03116972994037192</v>
+        <v>0.05141514458171001</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4157373759.46528</v>
+        <v>4331707371.253901</v>
       </c>
       <c r="F17" t="n">
-        <v>0.163036415273464</v>
+        <v>0.1219304135700861</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04292591793267718</v>
+        <v>0.034766442983202</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3377052506.30817</v>
+        <v>3636873087.747597</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1765353963618627</v>
+        <v>0.1793269957550616</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02172057034935961</v>
+        <v>0.02174435156953189</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1089275158.421523</v>
+        <v>1128145525.980344</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1207603647912585</v>
+        <v>0.1464362546742966</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02528665398895686</v>
+        <v>0.0201948613855626</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2499622599.60041</v>
+        <v>2322962019.983953</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1330447538682319</v>
+        <v>0.1138063433814969</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0317625034371745</v>
+        <v>0.03132774062948379</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1940956149.435303</v>
+        <v>1844812152.574343</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07627534970164891</v>
+        <v>0.0862828422678996</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03275856846532366</v>
+        <v>0.04586985449380595</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3102211664.546554</v>
+        <v>3546547461.370807</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1272868812790932</v>
+        <v>0.139867985314886</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05344698598918783</v>
+        <v>0.039461759548144</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1477568126.941421</v>
+        <v>1362363449.598422</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1608679947677573</v>
+        <v>0.1392376188669628</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05456293993712643</v>
+        <v>0.0337894464917582</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2819047960.879161</v>
+        <v>4139988447.666356</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09104904062760512</v>
+        <v>0.1207005494295314</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02724302755203136</v>
+        <v>0.02750270968160445</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1300353360.618762</v>
+        <v>1146097827.541422</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08021557510810171</v>
+        <v>0.1062026347779263</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02834224432039429</v>
+        <v>0.02019416115677219</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,16 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1032818515.589819</v>
+        <v>1455815477.289193</v>
       </c>
       <c r="F26" t="n">
-        <v>0.112673203524596</v>
+        <v>0.08588991636355923</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02908632416561008</v>
+        <v>0.02604967576775141</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3412618415.911135</v>
+        <v>3116125670.700352</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1406201572863706</v>
+        <v>0.1547255735537185</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02252742523082223</v>
+        <v>0.01638762311708583</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3100180316.087824</v>
+        <v>2426850809.788925</v>
       </c>
       <c r="F28" t="n">
-        <v>0.151530375156428</v>
+        <v>0.1372704204809189</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03192541305571257</v>
+        <v>0.04707221748460415</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5649546489.146578</v>
+        <v>4899689681.889054</v>
       </c>
       <c r="F29" t="n">
-        <v>0.144723193222646</v>
+        <v>0.09122068339829861</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03895472817035826</v>
+        <v>0.03004525270014221</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2371431663.415116</v>
+        <v>1643181972.630906</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1264504794406504</v>
+        <v>0.08723313682869675</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03839087549003284</v>
+        <v>0.03196717246731634</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1380269846.751762</v>
+        <v>1071407533.369404</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1111759767609951</v>
+        <v>0.07502727643412264</v>
       </c>
       <c r="G31" t="n">
-        <v>0.033191683852604</v>
+        <v>0.03789439279060396</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1623998770.695863</v>
+        <v>1556107136.360274</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09570998695634249</v>
+        <v>0.08881437574737774</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02616662243869016</v>
+        <v>0.03714289369597037</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2720888089.518206</v>
+        <v>2991269261.638703</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1384742341761253</v>
+        <v>0.1692886098995484</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03763911908441432</v>
+        <v>0.04197919280962571</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1179538095.32635</v>
+        <v>1422520915.592421</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08100741515128604</v>
+        <v>0.1154364589393996</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02734865376573982</v>
+        <v>0.02156302932249948</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1338516896.621948</v>
+        <v>1196447716.169228</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1179873321180932</v>
+        <v>0.110458744042955</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0390174451483665</v>
+        <v>0.0274666228550549</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2333911945.005367</v>
+        <v>1995439124.241271</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1449580436258375</v>
+        <v>0.1220854779524261</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0281464105324278</v>
+        <v>0.02622244666850364</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1836634167.82135</v>
+        <v>2557773192.247988</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1092488419901326</v>
+        <v>0.08408224563059069</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03634553883720509</v>
+        <v>0.03763105157201753</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1383800962.095828</v>
+        <v>1356300152.459616</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1185288538151821</v>
+        <v>0.1216026069244533</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03800928979397995</v>
+        <v>0.03028857754555461</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1931366184.981654</v>
+        <v>2105153995.798648</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1357455393215886</v>
+        <v>0.1182105822024999</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02645584923128386</v>
+        <v>0.02988046730886546</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1753349079.084636</v>
+        <v>1238286046.782968</v>
       </c>
       <c r="F40" t="n">
-        <v>0.118089510291392</v>
+        <v>0.157541286018292</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03857991019801815</v>
+        <v>0.05348150224691513</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2460001799.378862</v>
+        <v>2291936342.250972</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1285486130109503</v>
+        <v>0.161126262958746</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03696593845310808</v>
+        <v>0.04423426155107207</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3875400633.160476</v>
+        <v>4228248541.648893</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08888984582626167</v>
+        <v>0.09715244012458318</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03727477214122584</v>
+        <v>0.03599156152716113</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2753382031.098882</v>
+        <v>2847599379.13582</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1786715577249511</v>
+        <v>0.1475533356855363</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01710205344932081</v>
+        <v>0.02392959837475141</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2297004521.711052</v>
+        <v>2098503647.152907</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09254308888354604</v>
+        <v>0.0761327937346811</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02806262529511677</v>
+        <v>0.03649408560635267</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1680713731.191871</v>
+        <v>2050050981.391254</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1318846959136312</v>
+        <v>0.1925126074223149</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03916971101882109</v>
+        <v>0.05171005335895928</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,13 +1718,13 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3621403315.098736</v>
+        <v>3964416867.311903</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1768232768213282</v>
+        <v>0.1186149940680278</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03698378791186299</v>
+        <v>0.05019083508552206</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1746,13 +1746,13 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3805345652.065804</v>
+        <v>3899677404.001277</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2029322697860274</v>
+        <v>0.1988694184016379</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05827666701485974</v>
+        <v>0.03794861179396724</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3567862668.321221</v>
+        <v>4571234470.13389</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0953535699891128</v>
+        <v>0.09070532304066102</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02812670891175143</v>
+        <v>0.0302573193841895</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1920349292.315401</v>
+        <v>1478984789.152952</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1507258260526164</v>
+        <v>0.1380714470163714</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03760712688712172</v>
+        <v>0.0447957623273558</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2802018069.508418</v>
+        <v>2925673841.813175</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1233631657621084</v>
+        <v>0.13070011621585</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04899947124556594</v>
+        <v>0.05168493160922585</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1311863952.097499</v>
+        <v>987890200.8576174</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1770753153011455</v>
+        <v>0.1518784629517322</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03540134479072951</v>
+        <v>0.05009717829584306</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4447652799.95105</v>
+        <v>5129964473.632355</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1344736927206923</v>
+        <v>0.106407566884278</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04664344013245124</v>
+        <v>0.05154035629986582</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2973607395.421797</v>
+        <v>2535101171.910872</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1522562104843899</v>
+        <v>0.1729259178094039</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03117890505724948</v>
+        <v>0.03443410509168726</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3326729442.458149</v>
+        <v>3384973663.297909</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1206114532403034</v>
+        <v>0.1133386762699358</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03795950996935641</v>
+        <v>0.0488886264510827</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4452368633.902276</v>
+        <v>3635711501.39705</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2186826757185304</v>
+        <v>0.1935502312311381</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0219091212387076</v>
+        <v>0.02285957545585752</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1754010968.028894</v>
+        <v>1595933558.641145</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1490175739218808</v>
+        <v>0.1617825165335603</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03795526134870605</v>
+        <v>0.0455287534271723</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4568174273.522346</v>
+        <v>3978648304.26639</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1502327651197356</v>
+        <v>0.123673839954519</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01807423228256843</v>
+        <v>0.02367942338077952</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1880783827.34268</v>
+        <v>1166672410.400987</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1473405586002901</v>
+        <v>0.1516294497375511</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02743700941423815</v>
+        <v>0.03132735086931321</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3931312538.689458</v>
+        <v>3692476742.507782</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1299570022756819</v>
+        <v>0.1084877117391413</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04391137701024968</v>
+        <v>0.04078262435122208</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2340018182.550763</v>
+        <v>3152998248.154155</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1278725661688448</v>
+        <v>0.1422514009683085</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02524982466133923</v>
+        <v>0.02905149353345559</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2689972952.319355</v>
+        <v>2308463839.916759</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1682821846810189</v>
+        <v>0.1392265702893315</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02092580380248147</v>
+        <v>0.02943495831568134</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1312604036.646718</v>
+        <v>2111161104.175761</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1225217382229329</v>
+        <v>0.1767965944383737</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04476936983261789</v>
+        <v>0.04965280867307734</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4179021346.193729</v>
+        <v>5467913509.169736</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1060184865948752</v>
+        <v>0.07243234196263375</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04460914513316076</v>
+        <v>0.03696647974718458</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4014287011.654584</v>
+        <v>5290319116.479694</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1271487821899184</v>
+        <v>0.1606443041220131</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02513896740467478</v>
+        <v>0.02160153482459507</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4811930257.70399</v>
+        <v>3695269332.052983</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1706228594518255</v>
+        <v>0.1515394273885625</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02344702413450916</v>
+        <v>0.02777655211395087</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4956868885.369316</v>
+        <v>3514624612.363014</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1103141122207114</v>
+        <v>0.1005032709176474</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03572462188410424</v>
+        <v>0.03535271836355666</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3340113228.018211</v>
+        <v>3407558876.145667</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09138260343920822</v>
+        <v>0.09515472586343215</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03179483373752009</v>
+        <v>0.04668446990256555</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5770022659.511609</v>
+        <v>5956688360.317621</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1169749297853514</v>
+        <v>0.1435387267003085</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0328388280405232</v>
+        <v>0.04083261891627631</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2155191111.159817</v>
+        <v>1539267810.24195</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1655968988368127</v>
+        <v>0.1237798727255604</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05670548790178384</v>
+        <v>0.04053093293049827</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2568372852.394252</v>
+        <v>2303583601.450114</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07192329674032071</v>
+        <v>0.07271635541396376</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03658528754890661</v>
+        <v>0.03628604882139875</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4369121857.123148</v>
+        <v>3645257080.9746</v>
       </c>
       <c r="F71" t="n">
-        <v>0.154237082063336</v>
+        <v>0.1575895893403968</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03292319924915794</v>
+        <v>0.02282092109355768</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1457410735.682698</v>
+        <v>1501155515.097982</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08662173699010317</v>
+        <v>0.07337604599995304</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04879112727080588</v>
+        <v>0.04666510046539835</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2770214930.152615</v>
+        <v>2761516651.307937</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07120025880090088</v>
+        <v>0.10991088456347</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04431656127692654</v>
+        <v>0.03192681559868723</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3628465574.131657</v>
+        <v>3184660792.383273</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1560293046489355</v>
+        <v>0.1237693860826895</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02299023833991255</v>
+        <v>0.02523314515857703</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1779331956.695615</v>
+        <v>2501769355.628725</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1389892297278657</v>
+        <v>0.1384216685588156</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02574221207351153</v>
+        <v>0.02359846680963537</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4895193571.124455</v>
+        <v>5098126595.257513</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08310500773553009</v>
+        <v>0.102064027809259</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03427308525028337</v>
+        <v>0.03427606629671297</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1938828779.919102</v>
+        <v>1592876403.074944</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1710394211752441</v>
+        <v>0.1600347445760533</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0306054032204275</v>
+        <v>0.02992530763412228</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4513915497.99673</v>
+        <v>4660438114.906033</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1009498066380539</v>
+        <v>0.1105091776865348</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0559790813688857</v>
+        <v>0.04332766279242227</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1613922780.904173</v>
+        <v>1403521767.483429</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1681522261354486</v>
+        <v>0.1360477545712866</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02768634217028376</v>
+        <v>0.03041174654700477</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5635888136.882494</v>
+        <v>5278967831.004741</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07742005437046522</v>
+        <v>0.08319748300959778</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02631023354580478</v>
+        <v>0.02667770424442552</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3316594925.192503</v>
+        <v>4958681946.385968</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09342192767933503</v>
+        <v>0.1076427412897845</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03178024650666483</v>
+        <v>0.02701854570960167</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5064486124.602596</v>
+        <v>4254823393.598393</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2102110928751681</v>
+        <v>0.1485076487732013</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0205378784589984</v>
+        <v>0.02714813482636441</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1882773977.719824</v>
+        <v>2274637607.572501</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1125512686110596</v>
+        <v>0.1408252793849714</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04435247435893919</v>
+        <v>0.03988036958915767</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2042174218.478917</v>
+        <v>2218695539.76833</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09398603852236842</v>
+        <v>0.07947148495249434</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03657433866073614</v>
+        <v>0.03493901034097386</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3110581436.519985</v>
+        <v>2371602112.203207</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1718820006684253</v>
+        <v>0.1116157138709054</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05080893574719923</v>
+        <v>0.0369365523575874</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2669081741.478906</v>
+        <v>2342334770.938417</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1582661112338162</v>
+        <v>0.1446238519062457</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01922655851653115</v>
+        <v>0.02231661890389416</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1309502862.620132</v>
+        <v>933713745.3871211</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1885917016434936</v>
+        <v>0.1798528116609873</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03046988391458674</v>
+        <v>0.03196194978943848</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2817086113.087771</v>
+        <v>3502549169.136978</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1536923527356816</v>
+        <v>0.133780507764861</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03643763503968109</v>
+        <v>0.03473306040503173</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3234532625.757537</v>
+        <v>2129109910.08279</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1092343545636599</v>
+        <v>0.1506532760494128</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04022225280738764</v>
+        <v>0.03377451589587615</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2146497904.440711</v>
+        <v>2032184285.880756</v>
       </c>
       <c r="F90" t="n">
-        <v>0.126153438286395</v>
+        <v>0.1190620396964991</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04759331158089758</v>
+        <v>0.04280755469529188</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1977338065.447258</v>
+        <v>1675741637.846894</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1243873417759681</v>
+        <v>0.1717692699460755</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04997155526626469</v>
+        <v>0.0504903331212305</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2812231602.82727</v>
+        <v>1827571138.516688</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09715904842506648</v>
+        <v>0.07626872985125924</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04758233794744184</v>
+        <v>0.03585554051596878</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4070383836.534106</v>
+        <v>4874932870.665782</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09932166791783147</v>
+        <v>0.0931457251617141</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04206987264947821</v>
+        <v>0.05059383279349666</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1786710839.306399</v>
+        <v>2175423700.061052</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1285914755378298</v>
+        <v>0.1295969600395476</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0362166614809857</v>
+        <v>0.03234304038359233</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3226835856.252516</v>
+        <v>2151503848.205125</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1005197120046571</v>
+        <v>0.08537454461325115</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0497922688912226</v>
+        <v>0.04784104725929969</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1615296800.003577</v>
+        <v>2368252980.895044</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09289615238571405</v>
+        <v>0.1079431711951575</v>
       </c>
       <c r="G96" t="n">
-        <v>0.044511343174652</v>
+        <v>0.04305947792244756</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5095669256.707271</v>
+        <v>5225340714.570146</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1221479602635024</v>
+        <v>0.1699164086226468</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02005892378138012</v>
+        <v>0.01947245488641414</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3139441725.8701</v>
+        <v>3637787802.688645</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1181399126173753</v>
+        <v>0.1297744912679746</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02070937557508066</v>
+        <v>0.03074336118926507</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2755119934.738847</v>
+        <v>2825738537.465994</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09183572630785199</v>
+        <v>0.1018283337641726</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02406298140747907</v>
+        <v>0.0335857539947037</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4479884720.449291</v>
+        <v>3407422130.391789</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1679488061936593</v>
+        <v>0.1737005290246985</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02015296031611333</v>
+        <v>0.02476088958644189</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3304438906.75485</v>
+        <v>3462455024.214845</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1794486070982838</v>
+        <v>0.1861173553646057</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0437276372246406</v>
+        <v>0.03913019418975441</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_452.xlsx
+++ b/output/fit_clients/fit_round_452.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2411360499.217433</v>
+        <v>2066706008.405016</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06961243127075009</v>
+        <v>0.07677029174147065</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0285478852869098</v>
+        <v>0.04222732298527569</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2557238027.289183</v>
+        <v>1695309499.358156</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1584320350687616</v>
+        <v>0.168403458263778</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03854593088439773</v>
+        <v>0.04841336648380686</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3784139798.362185</v>
+        <v>5126380445.152213</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1171980592329276</v>
+        <v>0.1323891023894467</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03599241474065826</v>
+        <v>0.03757138154753311</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>229</v>
+      </c>
+      <c r="J4" t="n">
+        <v>451</v>
+      </c>
+      <c r="K4" t="n">
+        <v>33.7001736292948</v>
       </c>
     </row>
     <row r="5">
@@ -570,16 +608,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2582824075.188507</v>
+        <v>3602726794.000916</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07723570415982192</v>
+        <v>0.09260067844458665</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03101874851362832</v>
+        <v>0.03930290742012338</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>190</v>
+      </c>
+      <c r="J5" t="n">
+        <v>451</v>
+      </c>
+      <c r="K5" t="n">
+        <v>33.88450802272067</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2789762377.698486</v>
+        <v>1901430089.167027</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1279699517451581</v>
+        <v>0.1209622783593392</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05601242056388941</v>
+        <v>0.05556467638783179</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +680,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2723003518.561322</v>
+        <v>2051792023.722047</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09789610808922136</v>
+        <v>0.0916255838930808</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03773588987560429</v>
+        <v>0.04247648011423399</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +709,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3673200812.192875</v>
+        <v>3066361307.07298</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1856269757228497</v>
+        <v>0.1471193685887007</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02077272823357137</v>
+        <v>0.02163604684628837</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>126</v>
+      </c>
+      <c r="J8" t="n">
+        <v>451</v>
+      </c>
+      <c r="K8" t="n">
+        <v>27.98787057138083</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +746,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1483502592.612225</v>
+        <v>1909208553.890735</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1532352507020737</v>
+        <v>0.1237930540570501</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03185164447568911</v>
+        <v>0.02913124779995613</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +781,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5179677936.404532</v>
+        <v>4026164303.439737</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1893703484465321</v>
+        <v>0.154929632042243</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04342267675772595</v>
+        <v>0.04535199928169851</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>351</v>
+      </c>
+      <c r="J10" t="n">
+        <v>451</v>
+      </c>
+      <c r="K10" t="n">
+        <v>34.44040506477803</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +818,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3785374812.603958</v>
+        <v>3383008724.43343</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1408671191339985</v>
+        <v>0.1453973577259931</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03227466596926255</v>
+        <v>0.03676520843346788</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>188</v>
+      </c>
+      <c r="J11" t="n">
+        <v>450</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3268350144.464197</v>
+        <v>2449192737.675427</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1756111062167756</v>
+        <v>0.1704432504791497</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04693017964439605</v>
+        <v>0.0426581837496867</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +894,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5351326148.431703</v>
+        <v>3545166012.267636</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09220294963021389</v>
+        <v>0.0746983978402139</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02251937509402764</v>
+        <v>0.03017168997465938</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>234</v>
+      </c>
+      <c r="J13" t="n">
+        <v>452</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +929,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2836011119.705731</v>
+        <v>3843813182.720454</v>
       </c>
       <c r="F14" t="n">
-        <v>0.144319633299261</v>
+        <v>0.1532364765014194</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04403169504756319</v>
+        <v>0.03685302302450837</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>98</v>
+      </c>
+      <c r="J14" t="n">
+        <v>452</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1260571600.888362</v>
+        <v>1756077732.96065</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07888342358447974</v>
+        <v>0.07323072495174854</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04083888061573794</v>
+        <v>0.03106767452372042</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2657896728.397702</v>
+        <v>2465838683.182299</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08615316283379479</v>
+        <v>0.1110589926024089</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05141514458171001</v>
+        <v>0.05165566322786776</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4331707371.253901</v>
+        <v>4953951054.955455</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1219304135700861</v>
+        <v>0.125623868518669</v>
       </c>
       <c r="G17" t="n">
-        <v>0.034766442983202</v>
+        <v>0.03979529605849768</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>220</v>
+      </c>
+      <c r="J17" t="n">
+        <v>452</v>
+      </c>
+      <c r="K17" t="n">
+        <v>35.92729867998243</v>
       </c>
     </row>
     <row r="18">
@@ -934,16 +1071,25 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3636873087.747597</v>
+        <v>3983506193.37357</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1793269957550616</v>
+        <v>0.1364229916595412</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02174435156953189</v>
+        <v>0.02644543265583375</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>121</v>
+      </c>
+      <c r="J18" t="n">
+        <v>452</v>
+      </c>
+      <c r="K18" t="n">
+        <v>43.88280789823083</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1102,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1128145525.980344</v>
+        <v>1055499410.689329</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1464362546742966</v>
+        <v>0.1320332280508839</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0201948613855626</v>
+        <v>0.01691950046486175</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1137,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2322962019.983953</v>
+        <v>2297146595.732911</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1138063433814969</v>
+        <v>0.1201768232958508</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03132774062948379</v>
+        <v>0.02146586279566135</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1172,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1844812152.574343</v>
+        <v>2694999972.208077</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0862828422678996</v>
+        <v>0.06763886628934948</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04586985449380595</v>
+        <v>0.03222486341110123</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1207,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3546547461.370807</v>
+        <v>2437008223.352277</v>
       </c>
       <c r="F22" t="n">
-        <v>0.139867985314886</v>
+        <v>0.1372575484592424</v>
       </c>
       <c r="G22" t="n">
-        <v>0.039461759548144</v>
+        <v>0.03761165745804901</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>131</v>
+      </c>
+      <c r="J22" t="n">
+        <v>449</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1362363449.598422</v>
+        <v>1543603743.517476</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1392376188669628</v>
+        <v>0.1162374563671817</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0337894464917582</v>
+        <v>0.04200844191369076</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1277,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4139988447.666356</v>
+        <v>3420492968.192072</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1207005494295314</v>
+        <v>0.1339230609768624</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02750270968160445</v>
+        <v>0.028212724692401</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>143</v>
+      </c>
+      <c r="J24" t="n">
+        <v>450</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1318,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1146097827.541422</v>
+        <v>1354552591.021925</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1062026347779263</v>
+        <v>0.08390107682350006</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02019416115677219</v>
+        <v>0.01869893866593405</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1455815477.289193</v>
+        <v>895137755.5649194</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08588991636355923</v>
+        <v>0.1071479127370403</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02604967576775141</v>
+        <v>0.03442318895925681</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1388,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3116125670.700352</v>
+        <v>4407393331.31121</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1547255735537185</v>
+        <v>0.1288964208879344</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01638762311708583</v>
+        <v>0.02666942087765532</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>196</v>
+      </c>
+      <c r="J27" t="n">
+        <v>452</v>
+      </c>
+      <c r="K27" t="n">
+        <v>39.13700526957602</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1419,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2426850809.788925</v>
+        <v>3741494738.72784</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1372704204809189</v>
+        <v>0.1221114490832927</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04707221748460415</v>
+        <v>0.04256954279479023</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>108</v>
+      </c>
+      <c r="J28" t="n">
+        <v>452</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1460,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4899689681.889054</v>
+        <v>3577072119.783164</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09122068339829861</v>
+        <v>0.1049231016964289</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03004525270014221</v>
+        <v>0.0430069516755389</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>367</v>
+      </c>
+      <c r="J29" t="n">
+        <v>451</v>
+      </c>
+      <c r="K29" t="n">
+        <v>26.01710442920217</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1643181972.630906</v>
+        <v>1699845114.337923</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08723313682869675</v>
+        <v>0.1040400333644617</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03196717246731634</v>
+        <v>0.03499341181805975</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1071407533.369404</v>
+        <v>1373769200.00761</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07502727643412264</v>
+        <v>0.07858914090575699</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03789439279060396</v>
+        <v>0.05119946078730189</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1567,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1556107136.360274</v>
+        <v>1715139235.951639</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08881437574737774</v>
+        <v>0.09022934881097847</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03714289369597037</v>
+        <v>0.02442018951561827</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2991269261.638703</v>
+        <v>2467565347.44453</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1692886098995484</v>
+        <v>0.1732794439981599</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04197919280962571</v>
+        <v>0.04306223009856666</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1422520915.592421</v>
+        <v>1177386922.719567</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1154364589393996</v>
+        <v>0.1145935490210231</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02156302932249948</v>
+        <v>0.02024477920389362</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1196447716.169228</v>
+        <v>978073917.6850599</v>
       </c>
       <c r="F35" t="n">
-        <v>0.110458744042955</v>
+        <v>0.1039697251639597</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0274666228550549</v>
+        <v>0.03390148422899732</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1995439124.241271</v>
+        <v>2412005254.569941</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1220854779524261</v>
+        <v>0.1182093431965272</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02622244666850364</v>
+        <v>0.01977682968445985</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2557773192.247988</v>
+        <v>2741400202.613184</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08408224563059069</v>
+        <v>0.09553242693762407</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03763105157201753</v>
+        <v>0.04043069527845139</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1356300152.459616</v>
+        <v>2129820736.393999</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1216026069244533</v>
+        <v>0.1211633278946391</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03028857754555461</v>
+        <v>0.02559150022380443</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2105153995.798648</v>
+        <v>1597747584.374568</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1182105822024999</v>
+        <v>0.1868135531666124</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02988046730886546</v>
+        <v>0.02542314717009731</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1847,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1238286046.782968</v>
+        <v>1781573572.97442</v>
       </c>
       <c r="F40" t="n">
-        <v>0.157541286018292</v>
+        <v>0.1362375663897747</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05348150224691513</v>
+        <v>0.05648330739118431</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2291936342.250972</v>
+        <v>2468886016.592131</v>
       </c>
       <c r="F41" t="n">
-        <v>0.161126262958746</v>
+        <v>0.1519853934396549</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04423426155107207</v>
+        <v>0.0414597339489029</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1911,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4228248541.648893</v>
+        <v>3556219423.846203</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09715244012458318</v>
+        <v>0.1154782207193336</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03599156152716113</v>
+        <v>0.04523599569789678</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>198</v>
+      </c>
+      <c r="J42" t="n">
+        <v>451</v>
+      </c>
+      <c r="K42" t="n">
+        <v>33.94998002364343</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1954,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2847599379.13582</v>
+        <v>1979099524.554027</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1475533356855363</v>
+        <v>0.1890427443129619</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02392959837475141</v>
+        <v>0.02234238053058085</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1983,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2098503647.152907</v>
+        <v>2315614205.98873</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0761327937346811</v>
+        <v>0.08164905303111153</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03649408560635267</v>
+        <v>0.02378691033909758</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2018,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2050050981.391254</v>
+        <v>2164569475.565187</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1925126074223149</v>
+        <v>0.1426746875209901</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05171005335895928</v>
+        <v>0.03706360130276395</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2053,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3964416867.311903</v>
+        <v>5032506188.533823</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1186149940680278</v>
+        <v>0.1332909073312195</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05019083508552206</v>
+        <v>0.04045343762739283</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>268</v>
+      </c>
+      <c r="J46" t="n">
+        <v>452</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,16 +2094,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3899677404.001277</v>
+        <v>5184312691.794083</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1988694184016379</v>
+        <v>0.1689115172631345</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03794861179396724</v>
+        <v>0.05012323869009242</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>204</v>
+      </c>
+      <c r="J47" t="n">
+        <v>451</v>
+      </c>
+      <c r="K47" t="n">
+        <v>33.49796938995244</v>
       </c>
     </row>
     <row r="48">
@@ -1774,17 +2131,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4571234470.13389</v>
+        <v>3322485894.891618</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09070532304066102</v>
+        <v>0.1101990461384708</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0302573193841895</v>
+        <v>0.02941648737595365</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>227</v>
+      </c>
+      <c r="J48" t="n">
+        <v>450</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2160,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1478984789.152952</v>
+        <v>1251947215.527797</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1380714470163714</v>
+        <v>0.1441315746002672</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0447957623273558</v>
+        <v>0.03564521936298526</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2195,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2925673841.813175</v>
+        <v>3545257940.258607</v>
       </c>
       <c r="F50" t="n">
-        <v>0.13070011621585</v>
+        <v>0.1135719904013713</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05168493160922585</v>
+        <v>0.03260283235980852</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>162</v>
+      </c>
+      <c r="J50" t="n">
+        <v>451</v>
+      </c>
+      <c r="K50" t="n">
+        <v>31.4224344133448</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2232,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>987890200.8576174</v>
+        <v>1495464140.872638</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1518784629517322</v>
+        <v>0.1736564525220382</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05009717829584306</v>
+        <v>0.0498898155276955</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2267,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5129964473.632355</v>
+        <v>3444940144.266685</v>
       </c>
       <c r="F52" t="n">
-        <v>0.106407566884278</v>
+        <v>0.09048549715141703</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05154035629986582</v>
+        <v>0.04752014747888659</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
+      <c r="I52" t="n">
+        <v>257</v>
+      </c>
+      <c r="J52" t="n">
+        <v>450</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2302,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2535101171.910872</v>
+        <v>3123374985.935693</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1729259178094039</v>
+        <v>0.2013763171509926</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03443410509168726</v>
+        <v>0.03377450543415608</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>68</v>
+      </c>
+      <c r="J53" t="n">
+        <v>446</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2337,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3384973663.297909</v>
+        <v>4511571888.353421</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1133386762699358</v>
+        <v>0.1261115511709333</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0488886264510827</v>
+        <v>0.03281067390293133</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>238</v>
+      </c>
+      <c r="J54" t="n">
+        <v>452</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2372,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3635711501.39705</v>
+        <v>4813979012.539512</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1935502312311381</v>
+        <v>0.1757713893026552</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02285957545585752</v>
+        <v>0.01979882441538391</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>224</v>
+      </c>
+      <c r="J55" t="n">
+        <v>452</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1595933558.641145</v>
+        <v>1647714666.948984</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1617825165335603</v>
+        <v>0.1562648581528108</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0455287534271723</v>
+        <v>0.05525021315655903</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3978648304.26639</v>
+        <v>4185567787.08343</v>
       </c>
       <c r="F57" t="n">
-        <v>0.123673839954519</v>
+        <v>0.1163837218509785</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02367942338077952</v>
+        <v>0.02737628479448092</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>195</v>
+      </c>
+      <c r="J57" t="n">
+        <v>452</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2483,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1166672410.400987</v>
+        <v>1372097865.785805</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1516294497375511</v>
+        <v>0.1795827068772667</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03132735086931321</v>
+        <v>0.02995900663874577</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3692476742.507782</v>
+        <v>5099708732.497023</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1084877117391413</v>
+        <v>0.1203254559392298</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04078262435122208</v>
+        <v>0.03999991804053565</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>220</v>
+      </c>
+      <c r="J59" t="n">
+        <v>452</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2553,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3152998248.154155</v>
+        <v>2577454197.871588</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1422514009683085</v>
+        <v>0.1295573156760093</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02905149353345559</v>
+        <v>0.02635732472205737</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>86</v>
+      </c>
+      <c r="J60" t="n">
+        <v>437</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2308463839.916759</v>
+        <v>2246046797.198315</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1392265702893315</v>
+        <v>0.1307063501386437</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02943495831568134</v>
+        <v>0.02605811146442898</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2111161104.175761</v>
+        <v>1982658180.185528</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1767965944383737</v>
+        <v>0.1399871643170375</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04965280867307734</v>
+        <v>0.0356840229004094</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5467913509.169736</v>
+        <v>4395574342.342235</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07243234196263375</v>
+        <v>0.08048038406512273</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03696647974718458</v>
+        <v>0.04685130856681476</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>226</v>
+      </c>
+      <c r="J63" t="n">
+        <v>451</v>
+      </c>
+      <c r="K63" t="n">
+        <v>33.25716148299539</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5290319116.479694</v>
+        <v>3945367566.891671</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1606443041220131</v>
+        <v>0.1236067841192434</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02160153482459507</v>
+        <v>0.02355578103301615</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>226</v>
+      </c>
+      <c r="J64" t="n">
+        <v>452</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2724,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3695269332.052983</v>
+        <v>4023268178.894318</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1515394273885625</v>
+        <v>0.1094434249402377</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02777655211395087</v>
+        <v>0.0217121978905313</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>323</v>
+      </c>
+      <c r="J65" t="n">
+        <v>452</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,16 +2765,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3514624612.363014</v>
+        <v>3925421577.363668</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1005032709176474</v>
+        <v>0.1099087490902432</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03535271836355666</v>
+        <v>0.04892811306056739</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>223</v>
+      </c>
+      <c r="J66" t="n">
+        <v>451</v>
+      </c>
+      <c r="K66" t="n">
+        <v>32.39998808114401</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2802,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3407558876.145667</v>
+        <v>3392824881.991003</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09515472586343215</v>
+        <v>0.09692101909124565</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04668446990256555</v>
+        <v>0.03610160570948784</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5956688360.317621</v>
+        <v>5504764583.108951</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1435387267003085</v>
+        <v>0.1604540747019902</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04083261891627631</v>
+        <v>0.03506997250181811</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>246</v>
+      </c>
+      <c r="J68" t="n">
+        <v>451</v>
+      </c>
+      <c r="K68" t="n">
+        <v>32.36361715853327</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2874,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1539267810.24195</v>
+        <v>2168553744.770714</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1237798727255604</v>
+        <v>0.1599572281285116</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04053093293049827</v>
+        <v>0.05660028950218298</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2303583601.450114</v>
+        <v>2761009356.461302</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07271635541396376</v>
+        <v>0.07669961339399159</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03628604882139875</v>
+        <v>0.0314468073312684</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>66</v>
+      </c>
+      <c r="J70" t="n">
+        <v>450</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2938,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3645257080.9746</v>
+        <v>3783927716.146578</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1575895893403968</v>
+        <v>0.1299312042451854</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02282092109355768</v>
+        <v>0.02782955674545647</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>309</v>
+      </c>
+      <c r="J71" t="n">
+        <v>452</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1501155515.097982</v>
+        <v>1689475276.181135</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07337604599995304</v>
+        <v>0.100233929217494</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04666510046539835</v>
+        <v>0.03242932153900906</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2761516651.307937</v>
+        <v>2593303972.900763</v>
       </c>
       <c r="F73" t="n">
-        <v>0.10991088456347</v>
+        <v>0.08069115038393644</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03192681559868723</v>
+        <v>0.03682799267951214</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>36</v>
+      </c>
+      <c r="J73" t="n">
+        <v>443</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3184660792.383273</v>
+        <v>3926455753.08565</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1237693860826895</v>
+        <v>0.1531771032984121</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02523314515857703</v>
+        <v>0.02821436829216741</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>129</v>
+      </c>
+      <c r="J74" t="n">
+        <v>452</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2501769355.628725</v>
+        <v>2370563023.981081</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1384216685588156</v>
+        <v>0.1367719289951778</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02359846680963537</v>
+        <v>0.02600504477331058</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3113,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5098126595.257513</v>
+        <v>3750428477.957775</v>
       </c>
       <c r="F76" t="n">
-        <v>0.102064027809259</v>
+        <v>0.1179175515469613</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03427606629671297</v>
+        <v>0.02226048103737705</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>215</v>
+      </c>
+      <c r="J76" t="n">
+        <v>452</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1592876403.074944</v>
+        <v>2041073331.876116</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1600347445760533</v>
+        <v>0.1606158481120196</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02992530763412228</v>
+        <v>0.01917205877085453</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4660438114.906033</v>
+        <v>3146356428.385998</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1105091776865348</v>
+        <v>0.1295173235576338</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04332766279242227</v>
+        <v>0.03987093710825958</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>225</v>
+      </c>
+      <c r="J78" t="n">
+        <v>451</v>
+      </c>
+      <c r="K78" t="n">
+        <v>23.61379378037765</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1403521767.483429</v>
+        <v>1658476945.935505</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1360477545712866</v>
+        <v>0.1682726452599848</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03041174654700477</v>
+        <v>0.02759757223212241</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3255,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5278967831.004741</v>
+        <v>3820758858.540001</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08319748300959778</v>
+        <v>0.0797501801282329</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02667770424442552</v>
+        <v>0.03313149088458146</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>220</v>
+      </c>
+      <c r="J80" t="n">
+        <v>452</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3290,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4958681946.385968</v>
+        <v>5070285063.854956</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1076427412897845</v>
+        <v>0.0984131361036413</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02701854570960167</v>
+        <v>0.02701073572604429</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>210</v>
+      </c>
+      <c r="J81" t="n">
+        <v>452</v>
+      </c>
+      <c r="K81" t="n">
+        <v>36.79013126169337</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4254823393.598393</v>
+        <v>5230491606.156509</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1485076487732013</v>
+        <v>0.2006398458790722</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02714813482636441</v>
+        <v>0.0214047709283052</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>301</v>
+      </c>
+      <c r="J82" t="n">
+        <v>451</v>
+      </c>
+      <c r="K82" t="n">
+        <v>35.88537276530916</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2274637607.572501</v>
+        <v>2388883971.739831</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1408252793849714</v>
+        <v>0.1578399462728637</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03988036958915767</v>
+        <v>0.0447526357206039</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2218695539.76833</v>
+        <v>1712991644.758587</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07947148495249434</v>
+        <v>0.1139289250449452</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03493901034097386</v>
+        <v>0.04032018428139859</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3434,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2371602112.203207</v>
+        <v>3533978840.088501</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1116157138709054</v>
+        <v>0.1538891200674979</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0369365523575874</v>
+        <v>0.05459377648454681</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>64</v>
+      </c>
+      <c r="J85" t="n">
+        <v>452</v>
+      </c>
+      <c r="K85" t="n">
+        <v>51.75117524784478</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2342334770.938417</v>
+        <v>1892484544.189444</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1446238519062457</v>
+        <v>0.123227803076436</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02231661890389416</v>
+        <v>0.0223167902936802</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>933713745.3871211</v>
+        <v>958340724.9757214</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1798528116609873</v>
+        <v>0.1640414969185103</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03196194978943848</v>
+        <v>0.0401738741771887</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3502549169.136978</v>
+        <v>2325608324.424302</v>
       </c>
       <c r="F88" t="n">
-        <v>0.133780507764861</v>
+        <v>0.1580811958356672</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03473306040503173</v>
+        <v>0.03180950409093963</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>61</v>
+      </c>
+      <c r="J88" t="n">
+        <v>449</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2129109910.08279</v>
+        <v>2925584734.402514</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1506532760494128</v>
+        <v>0.09665138698246073</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03377451589587615</v>
+        <v>0.02715221531610359</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2032184285.880756</v>
+        <v>1768676958.186324</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1190620396964991</v>
+        <v>0.1103858029353311</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04280755469529188</v>
+        <v>0.0449224220785785</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1675741637.846894</v>
+        <v>1858722593.219372</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1717692699460755</v>
+        <v>0.1492455678751063</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0504903331212305</v>
+        <v>0.05116005860857364</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1827571138.516688</v>
+        <v>2587624521.05799</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07626872985125924</v>
+        <v>0.06682596387721609</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03585554051596878</v>
+        <v>0.04332697802410851</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4874932870.665782</v>
+        <v>4878098493.586397</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0931457251617141</v>
+        <v>0.1260049898805032</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05059383279349666</v>
+        <v>0.04391053332084616</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>217</v>
+      </c>
+      <c r="J93" t="n">
+        <v>451</v>
+      </c>
+      <c r="K93" t="n">
+        <v>35.80939901744024</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2175423700.061052</v>
+        <v>2113688173.535939</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1295969600395476</v>
+        <v>0.1398996944843967</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03234304038359233</v>
+        <v>0.02650068103205357</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2151503848.205125</v>
+        <v>2899438221.816895</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08537454461325115</v>
+        <v>0.09409478269039738</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04784104725929969</v>
+        <v>0.03292746409281462</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2368252980.895044</v>
+        <v>1486407130.910387</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1079431711951575</v>
+        <v>0.1021075478682126</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04305947792244756</v>
+        <v>0.04300758293563874</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5225340714.570146</v>
+        <v>3591087627.334719</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1699164086226468</v>
+        <v>0.1152645101910708</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01947245488641414</v>
+        <v>0.02740051807825583</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>236</v>
+      </c>
+      <c r="J97" t="n">
+        <v>451</v>
+      </c>
+      <c r="K97" t="n">
+        <v>29.66577893284225</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3637787802.688645</v>
+        <v>2947370838.620884</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1297744912679746</v>
+        <v>0.08132525264206919</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03074336118926507</v>
+        <v>0.03238828611108103</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>114</v>
+      </c>
+      <c r="J98" t="n">
+        <v>449</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2825738537.465994</v>
+        <v>2201267670.965573</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1018283337641726</v>
+        <v>0.1465286456707937</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0335857539947037</v>
+        <v>0.02407826679373814</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3407422130.391789</v>
+        <v>4045815646.188995</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1737005290246985</v>
+        <v>0.1672864506940099</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02476088958644189</v>
+        <v>0.02145196347094662</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>210</v>
+      </c>
+      <c r="J100" t="n">
+        <v>452</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3462455024.214845</v>
+        <v>2408674328.407766</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1861173553646057</v>
+        <v>0.2183718593119507</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03913019418975441</v>
+        <v>0.04548487468502252</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
